--- a/biology/Botanique/Sapin_de_Sakhaline/Sapin_de_Sakhaline.xlsx
+++ b/biology/Botanique/Sapin_de_Sakhaline/Sapin_de_Sakhaline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abies sachalinensis
 Le Sapin de Sakhaline (Abies sachalinensis) est une espèce de Sapin de la famille des Pinaceae originaire de l'île de Sakhaline. On le trouve aussi au sud des îles Kouriles et au nord de l'île d'Hokkaido.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Sapin de Sakhaline est un arbre pouvant atteindre 15 mètres de hauteur. Le tronc est lisse et presque blanc. Les jeunes pousses sont faiblement velues et les branches sont lisses.
 Leurs bourgeons sont petits, bleuâtres, fortement résineux et hémisphériques.
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sapin se rencontre naturellement sur l'île de Sakhaline, dans les îles Kouriles et au nord de l'île d'Hokkaido. De petites populations ont aussi été aperçues dans la péninsule de Kamtchatka.
 Il peut pousser jusqu'à des altitudes de 1600 mètres. La variété Abies sachalinensis var. gracilis n'est présent que sur un petit territoire d'environ 0,2 kilomètre carré dans la vallée de Semyachik dans l'est de Kamtchatka.
@@ -578,7 +594,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En plus de la variété-type Abies sachalinensis var. sachalinensis, d'autres variétés existent:
 A. sachalinensis var. gracilis (Kom.) Farjon
@@ -611,7 +629,9 @@
           <t>Bois</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois du Sapin de Sakhaline est léger et doux. Il est surtout utilisé pour fabriquer de la pâte à papier et des caisses.
 </t>
